--- a/Client/Configs/GameConfig/Datas/__tables__.xlsx
+++ b/Client/Configs/GameConfig/Datas/__tables__.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\Framework\Framework\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\Framework\Framework\Client\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D25BFDF-B341-4013-B361-2B8B2CA4232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C1E340-0CA6-440A-A4E9-8086B2EEB43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -103,147 +116,24 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>Worker</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>worker.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>character.TbWorker</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.TbForniture</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>forniture.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.TbCrops</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>crops.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.TbLivestock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Livestock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>livestock.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.TbFish</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.TbSeasoning</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seasoning</t>
-  </si>
-  <si>
-    <t>调味品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雇员</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>家具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>农作物</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>牲畜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>seasoning.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.TbRanchProduct</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RanchProduct</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranchproduct.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>牧场产物(肉类和副产品)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>site.TbFarmlandUnlock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FarmlandUnlock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>farmlandUnlock.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>农场田地解锁条件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.TbCommonItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forniture</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommonItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>commonItem.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用道具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>task.xlsx</t>
+  </si>
+  <si>
+    <t>item.TbItem</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>item.xlsx</t>
+  </si>
+  <si>
+    <t>task.TbMergeTask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MergeTask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -262,7 +152,13 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,15 +169,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,12 +180,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,17 +201,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,22 +487,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.625" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="62.25" customWidth="1"/>
-    <col min="5" max="5" width="36.625" customWidth="1"/>
-    <col min="6" max="6" width="72.875" customWidth="1"/>
-    <col min="7" max="7" width="34.5" customWidth="1"/>
-    <col min="8" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -717,159 +594,34 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>44</v>
+      <c r="E4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>57</v>
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
